--- a/Solutions/solution_models_H18.xlsx
+++ b/Solutions/solution_models_H18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thermolab\v_2023_01_24\Minerals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Thermolab\v_2023_02_06\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32F05DE-DA27-42C0-B33F-2BE6F04088D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E1C811-FBB9-43AF-869E-C85CCDD2C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="865" firstSheet="11" activeTab="12" xr2:uid="{5AA2B440-0145-4F56-AB97-83AB8C8EBBCD}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="865" firstSheet="11" activeTab="16" xr2:uid="{5AA2B440-0145-4F56-AB97-83AB8C8EBBCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Melt" sheetId="3" r:id="rId1"/>
@@ -1573,7 +1573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1587,12 +1587,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1622,10 +1622,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>210</v>
       </c>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>-18400</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1750,9 +1750,9 @@
       <selection activeCell="B21" sqref="B21:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>248</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>247</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>249</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1999,9 +1999,9 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>246</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>247</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>248</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>249</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2332,12 +2332,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>250</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>252</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -2631,10 +2631,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
   </sheetData>
@@ -2646,16 +2646,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA72E341-EE36-4FAC-B18C-398EE0AB5C1E}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>253</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>255</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -2740,12 +2740,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>253</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>254</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>255</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -3008,9 +3008,9 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>253</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>362</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>255</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -3275,9 +3275,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>253</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>362</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>254</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>255</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -3437,13 +3437,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C242AA7-14DE-4A41-B16E-9624765AFF4E}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>214</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>215</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>220</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>205</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>206</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -4013,10 +4013,10 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -4025,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>207</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>-11000</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>-11000</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -4900,12 +4900,12 @@
       <selection activeCell="B17" sqref="B17:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>256</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>257</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>260</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>261</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>207</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>208</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>69</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>69</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -5883,15 +5883,15 @@
   <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="14" width="8.54296875" customWidth="1"/>
+    <col min="2" max="14" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>262</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>263</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>264</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>265</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>266</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>267</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>268</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>269</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>270</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>271</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -6442,7 +6442,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>209</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>205</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>206</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -6565,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>207</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>208</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -6922,7 +6922,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -6959,7 +6959,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -6999,7 +6999,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -7039,7 +7039,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -7079,14 +7079,14 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -7126,7 +7126,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -7166,7 +7166,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -7206,7 +7206,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -7246,7 +7246,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -7284,7 +7284,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -7322,7 +7322,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -7507,7 +7507,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>85</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -8050,7 +8050,7 @@
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -8068,7 +8068,7 @@
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -8086,7 +8086,7 @@
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -8104,7 +8104,7 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -8122,7 +8122,7 @@
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -8140,7 +8140,7 @@
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -8158,7 +8158,7 @@
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -8176,7 +8176,7 @@
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -8194,7 +8194,7 @@
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -8212,7 +8212,7 @@
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -8230,7 +8230,7 @@
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -8248,7 +8248,7 @@
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -8266,7 +8266,7 @@
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -8297,12 +8297,12 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>221</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>222</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>223</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>225</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>227</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>228</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>229</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>231</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>232</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>209</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>206</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>208</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>17800</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>23700</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>40300</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>-8300</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>17300</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>-610</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>-940</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>-860</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>-1580</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>-1580</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -11225,15 +11225,15 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>272</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>273</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>274</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>275</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>276</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>277</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>278</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>279</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>205</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>207</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>208</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>21500</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>35100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>62200</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>24300</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -12050,9 +12050,9 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>281</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>282</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>283</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>284</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>285</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>286</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>287</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>288</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>289</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>255</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>206</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>207</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>208</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>112</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>57600</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>72200</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>71700</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -13038,7 +13038,7 @@
         <v>71700</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>117</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>120</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>-820</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>-670</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>-1100</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>-1100</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>-790</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>-670</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>-1190</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -14191,12 +14191,12 @@
       <selection activeCell="B24" sqref="B24:O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>281</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>282</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>283</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>284</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>285</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>286</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>287</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>288</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>289</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>362</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>254</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>255</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>209</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>205</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>206</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>207</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -15158,7 +15158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -15290,7 +15290,7 @@
         <v>57600</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>72200</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>71700</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>71700</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -15598,7 +15598,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>363</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -15994,7 +15994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -16082,7 +16082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -16126,7 +16126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -16170,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>119</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>120</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>363</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -16390,7 +16390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -16434,7 +16434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>-820</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -16522,7 +16522,7 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>113</v>
       </c>
@@ -16566,7 +16566,7 @@
         <v>-670</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -16610,7 +16610,7 @@
         <v>-1100</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -16654,7 +16654,7 @@
         <v>-1100</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>116</v>
       </c>
@@ -16698,7 +16698,7 @@
         <v>-790</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -16742,7 +16742,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>-670</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -16874,7 +16874,7 @@
         <v>-1190</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>363</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -16962,7 +16962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -17019,9 +17019,9 @@
       <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>290</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>291</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>292</v>
       </c>
@@ -17324,7 +17324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>293</v>
       </c>
@@ -17383,7 +17383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>294</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>295</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>296</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>297</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>298</v>
       </c>
@@ -17678,7 +17678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>299</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>300</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -17855,7 +17855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>206</v>
       </c>
@@ -17973,7 +17973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>207</v>
       </c>
@@ -18050,7 +18050,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>208</v>
       </c>
@@ -18109,7 +18109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>133</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>129</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -18489,7 +18489,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -18527,7 +18527,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -18565,7 +18565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -18603,7 +18603,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>126</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -18679,7 +18679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -18755,7 +18755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -18869,7 +18869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>129</v>
       </c>
@@ -18907,7 +18907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -19059,7 +19059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>126</v>
       </c>
@@ -19097,7 +19097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>134</v>
       </c>
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>135</v>
       </c>
@@ -19211,7 +19211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -19249,7 +19249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>136</v>
       </c>
@@ -19287,7 +19287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -19325,7 +19325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -19363,7 +19363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>130</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -19439,7 +19439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>132</v>
       </c>
@@ -19477,7 +19477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -19515,7 +19515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -19642,9 +19642,9 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -19652,7 +19652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>301</v>
       </c>
@@ -19766,7 +19766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>302</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>303</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>304</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>305</v>
       </c>
@@ -19918,7 +19918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>306</v>
       </c>
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -19994,7 +19994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -20070,7 +20070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>207</v>
       </c>
@@ -20119,7 +20119,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>208</v>
       </c>
@@ -20157,7 +20157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -20180,7 +20180,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -20203,7 +20203,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>144</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -20249,7 +20249,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>139</v>
       </c>
@@ -20272,7 +20272,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>140</v>
       </c>
@@ -20295,7 +20295,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>141</v>
       </c>
@@ -20331,9 +20331,9 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -20341,7 +20341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -20411,7 +20411,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>307</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>308</v>
       </c>
@@ -20481,7 +20481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>309</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>310</v>
       </c>
@@ -20551,7 +20551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>311</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>312</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -20726,7 +20726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>207</v>
       </c>
@@ -20761,7 +20761,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>208</v>
       </c>
@@ -20796,7 +20796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>147</v>
       </c>
@@ -20888,7 +20888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>148</v>
       </c>
@@ -20911,7 +20911,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -20934,7 +20934,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -20957,7 +20957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -20980,7 +20980,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -21027,7 +21027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -21074,7 +21074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -21097,7 +21097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -21120,7 +21120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -21189,7 +21189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -21212,7 +21212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>148</v>
       </c>
@@ -21235,7 +21235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -21258,7 +21258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -21327,7 +21327,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -21386,9 +21386,9 @@
       <selection activeCell="A12" sqref="A12:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -21396,7 +21396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -21413,7 +21413,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -21430,7 +21430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>313</v>
       </c>
@@ -21447,7 +21447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>314</v>
       </c>
@@ -21464,7 +21464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>315</v>
       </c>
@@ -21481,7 +21481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -21498,7 +21498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -21515,7 +21515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -21533,7 +21533,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -21551,7 +21551,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -21569,11 +21569,11 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -21589,7 +21589,7 @@
       <c r="E17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -21605,7 +21605,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -21619,7 +21619,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>155</v>
       </c>
@@ -21633,20 +21633,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -21664,9 +21664,9 @@
       <selection activeCell="A12" sqref="A12:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -21674,7 +21674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -21691,7 +21691,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -21708,7 +21708,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>316</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>317</v>
       </c>
@@ -21742,7 +21742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>318</v>
       </c>
@@ -21759,7 +21759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -21776,7 +21776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -21793,7 +21793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -21810,7 +21810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -21827,7 +21827,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -21844,7 +21844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -21859,7 +21859,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>157</v>
       </c>
@@ -21874,7 +21874,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>158</v>
       </c>
@@ -21888,7 +21888,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>159</v>
       </c>
@@ -21903,10 +21903,10 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -21920,7 +21920,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>157</v>
       </c>
@@ -21934,7 +21934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>158</v>
       </c>
@@ -21948,7 +21948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -21962,7 +21962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -21976,7 +21976,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>157</v>
       </c>
@@ -21990,7 +21990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -22004,7 +22004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -22032,7 +22032,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -22046,7 +22046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -22060,7 +22060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -22087,9 +22087,9 @@
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -22097,7 +22097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -22141,7 +22141,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -22185,7 +22185,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>319</v>
       </c>
@@ -22229,7 +22229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>320</v>
       </c>
@@ -22273,7 +22273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>321</v>
       </c>
@@ -22317,7 +22317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>322</v>
       </c>
@@ -22361,7 +22361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>323</v>
       </c>
@@ -22405,7 +22405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>324</v>
       </c>
@@ -22449,7 +22449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>325</v>
       </c>
@@ -22493,7 +22493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>326</v>
       </c>
@@ -22537,7 +22537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -22581,7 +22581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>205</v>
       </c>
@@ -22625,7 +22625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -22669,7 +22669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>207</v>
       </c>
@@ -22726,7 +22726,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>208</v>
       </c>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -22799,7 +22799,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -22828,7 +22828,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>162</v>
       </c>
@@ -22886,7 +22886,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>163</v>
       </c>
@@ -22915,7 +22915,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>164</v>
       </c>
@@ -22944,7 +22944,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>165</v>
       </c>
@@ -22973,7 +22973,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>166</v>
       </c>
@@ -23002,7 +23002,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>169</v>
       </c>
@@ -23044,9 +23044,9 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -23054,7 +23054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -23080,7 +23080,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -23106,7 +23106,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>327</v>
       </c>
@@ -23132,7 +23132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>328</v>
       </c>
@@ -23158,7 +23158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>329</v>
       </c>
@@ -23184,7 +23184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>330</v>
       </c>
@@ -23210,7 +23210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>331</v>
       </c>
@@ -23238,7 +23238,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -23264,7 +23264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>205</v>
       </c>
@@ -23290,7 +23290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -23316,7 +23316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>207</v>
       </c>
@@ -23342,7 +23342,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>208</v>
       </c>
@@ -23368,7 +23368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -23388,7 +23388,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -23428,7 +23428,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>174</v>
       </c>
@@ -23448,7 +23448,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -23468,7 +23468,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>173</v>
       </c>
@@ -23501,12 +23501,12 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -23514,7 +23514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -23540,7 +23540,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -23566,7 +23566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>359</v>
       </c>
@@ -23592,7 +23592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>360</v>
       </c>
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>367</v>
       </c>
@@ -23644,7 +23644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>368</v>
       </c>
@@ -23696,7 +23696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>369</v>
       </c>
@@ -23722,7 +23722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>255</v>
       </c>
@@ -23751,7 +23751,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -23780,12 +23780,12 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -23811,7 +23811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>206</v>
       </c>
@@ -23837,7 +23837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -23870,7 +23870,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>208</v>
       </c>
@@ -23896,11 +23896,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
@@ -23917,9 +23917,9 @@
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -23927,7 +23927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -23947,7 +23947,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -23967,7 +23967,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>332</v>
       </c>
@@ -23988,7 +23988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>333</v>
       </c>
@@ -24009,7 +24009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>334</v>
       </c>
@@ -24030,7 +24030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>335</v>
       </c>
@@ -24051,7 +24051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -24073,7 +24073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -24113,7 +24113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -24133,7 +24133,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -24153,7 +24153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -24170,7 +24170,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>176</v>
       </c>
@@ -24187,7 +24187,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -24204,7 +24204,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>178</v>
       </c>
@@ -24251,9 +24251,9 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -24261,7 +24261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -24283,7 +24283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>336</v>
       </c>
@@ -24294,7 +24294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -24305,7 +24305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -24316,7 +24316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -24327,7 +24327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -24338,7 +24338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -24349,7 +24349,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -24360,7 +24360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -24371,7 +24371,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -24382,7 +24382,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>200</v>
       </c>
@@ -24406,9 +24406,9 @@
       <selection activeCell="A11" sqref="A11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -24416,7 +24416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -24438,7 +24438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>338</v>
       </c>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>339</v>
       </c>
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -24471,7 +24471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -24482,7 +24482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -24493,7 +24493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -24504,7 +24504,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -24515,7 +24515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -24526,7 +24526,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -24537,7 +24537,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>202</v>
       </c>
@@ -24561,9 +24561,9 @@
       <selection activeCell="A12" sqref="A12:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -24571,7 +24571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -24591,7 +24591,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -24611,7 +24611,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>340</v>
       </c>
@@ -24631,7 +24631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>341</v>
       </c>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>342</v>
       </c>
@@ -24671,7 +24671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -24691,7 +24691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -24711,7 +24711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -24731,7 +24731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -24751,7 +24751,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -24771,7 +24771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -24785,7 +24785,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -24799,7 +24799,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -24813,7 +24813,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>182</v>
       </c>
@@ -24840,9 +24840,9 @@
       <selection activeCell="A12" sqref="A12:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -24850,7 +24850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -24870,7 +24870,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -24890,7 +24890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>343</v>
       </c>
@@ -24910,7 +24910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>344</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>345</v>
       </c>
@@ -24950,7 +24950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -24970,7 +24970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -24990,7 +24990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -25010,7 +25010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -25030,7 +25030,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -25050,7 +25050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -25064,7 +25064,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>185</v>
       </c>
@@ -25078,7 +25078,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>186</v>
       </c>
@@ -25092,7 +25092,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -25119,9 +25119,9 @@
       <selection activeCell="A12" sqref="A12:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -25129,7 +25129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -25149,7 +25149,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -25169,7 +25169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>346</v>
       </c>
@@ -25189,7 +25189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>347</v>
       </c>
@@ -25209,7 +25209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>348</v>
       </c>
@@ -25229,7 +25229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -25249,7 +25249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -25269,7 +25269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -25289,7 +25289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -25309,7 +25309,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -25343,7 +25343,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -25357,7 +25357,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -25371,7 +25371,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>190</v>
       </c>
@@ -25398,9 +25398,9 @@
       <selection activeCell="A11" sqref="A11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -25408,7 +25408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -25419,7 +25419,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -25430,7 +25430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>349</v>
       </c>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>350</v>
       </c>
@@ -25452,7 +25452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -25464,10 +25464,10 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -25479,7 +25479,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -25490,7 +25490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -25501,7 +25501,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -25512,7 +25512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -25523,7 +25523,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -25534,7 +25534,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>192</v>
       </c>
@@ -25558,9 +25558,9 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -25568,7 +25568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -25579,7 +25579,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -25590,7 +25590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -25601,7 +25601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>352</v>
       </c>
@@ -25612,7 +25612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -25623,7 +25623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -25647,7 +25647,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -25658,7 +25658,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -25669,7 +25669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -25680,7 +25680,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -25691,7 +25691,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>194</v>
       </c>
@@ -25715,9 +25715,9 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -25725,7 +25725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -25748,7 +25748,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -25771,7 +25771,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>256</v>
       </c>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>257</v>
       </c>
@@ -25817,7 +25817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -25840,7 +25840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -25863,7 +25863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -25886,7 +25886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -25932,7 +25932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -25955,7 +25955,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -25978,7 +25978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -25995,7 +25995,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -26012,7 +26012,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -26029,7 +26029,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>195</v>
       </c>
@@ -26046,7 +26046,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>196</v>
       </c>
@@ -26077,9 +26077,9 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -26087,7 +26087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -26098,7 +26098,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26109,7 +26109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>355</v>
       </c>
@@ -26120,7 +26120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>356</v>
       </c>
@@ -26131,10 +26131,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -26146,7 +26146,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -26157,7 +26157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -26168,7 +26168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -26179,7 +26179,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -26190,7 +26190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -26201,7 +26201,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>197</v>
       </c>
@@ -26212,7 +26212,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>198</v>
       </c>
@@ -26236,12 +26236,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -26249,7 +26249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -26266,7 +26266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26283,7 +26283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>359</v>
       </c>
@@ -26300,7 +26300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>360</v>
       </c>
@@ -26317,7 +26317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>365</v>
       </c>
@@ -26334,7 +26334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>255</v>
       </c>
@@ -26354,7 +26354,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -26374,12 +26374,12 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -26413,7 +26413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -26434,7 +26434,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -26451,11 +26451,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
@@ -26472,9 +26472,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -26482,7 +26482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -26490,7 +26490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26498,7 +26498,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>374</v>
       </c>
@@ -26506,7 +26506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -26514,7 +26514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -26522,7 +26522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -26530,7 +26530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -26538,7 +26538,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -26546,22 +26546,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
   </sheetData>
@@ -26577,9 +26577,9 @@
       <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -26587,7 +26587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -26595,7 +26595,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26603,7 +26603,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>375</v>
       </c>
@@ -26611,7 +26611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -26619,7 +26619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -26627,7 +26627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -26635,7 +26635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -26643,7 +26643,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -26664,9 +26664,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -26674,7 +26674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -26682,7 +26682,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26690,7 +26690,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>379</v>
       </c>
@@ -26698,7 +26698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -26706,7 +26706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -26714,7 +26714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -26722,7 +26722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -26730,7 +26730,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -26751,9 +26751,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -26761,7 +26761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -26769,7 +26769,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26777,7 +26777,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>378</v>
       </c>
@@ -26785,7 +26785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -26793,7 +26793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -26801,7 +26801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -26809,7 +26809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -26817,7 +26817,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -26838,9 +26838,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -26848,7 +26848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -26856,7 +26856,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26864,7 +26864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>377</v>
       </c>
@@ -26872,7 +26872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -26880,7 +26880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -26888,7 +26888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -26896,7 +26896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -26904,7 +26904,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -26925,9 +26925,9 @@
       <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -26935,7 +26935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -26943,7 +26943,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26951,7 +26951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>376</v>
       </c>
@@ -26959,7 +26959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -26967,7 +26967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -26991,7 +26991,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -27012,9 +27012,9 @@
       <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -27022,7 +27022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -27030,7 +27030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -27038,7 +27038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>380</v>
       </c>
@@ -27046,7 +27046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -27054,7 +27054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -27062,7 +27062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -27070,7 +27070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -27078,7 +27078,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -27099,9 +27099,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -27109,7 +27109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -27117,7 +27117,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -27125,7 +27125,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>381</v>
       </c>
@@ -27133,7 +27133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -27141,7 +27141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -27149,7 +27149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -27157,7 +27157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -27165,7 +27165,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -27186,12 +27186,12 @@
       <selection activeCell="A12" sqref="A12:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -27199,7 +27199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -27225,7 +27225,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>233</v>
       </c>
@@ -27278,7 +27278,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -27305,7 +27305,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>235</v>
       </c>
@@ -27332,7 +27332,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -27342,7 +27342,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -27368,10 +27368,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -27423,7 +27423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -27449,7 +27449,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -27488,9 +27488,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -27498,7 +27498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -27524,7 +27524,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -27550,10 +27550,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>236</v>
       </c>
@@ -27581,7 +27581,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>237</v>
       </c>
@@ -27608,7 +27608,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>238</v>
       </c>
@@ -27636,7 +27636,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -27648,7 +27648,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -27674,10 +27674,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -27729,7 +27729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -27755,7 +27755,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -27794,9 +27794,9 @@
       <selection activeCell="A12" sqref="A12:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -27804,7 +27804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -27818,7 +27818,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -27832,7 +27832,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>239</v>
       </c>
@@ -27846,7 +27846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>240</v>
       </c>
@@ -27860,7 +27860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>241</v>
       </c>
@@ -27874,7 +27874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -27888,7 +27888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -27902,7 +27902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -27916,7 +27916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -27930,7 +27930,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -27944,7 +27944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -27958,7 +27958,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -27974,7 +27974,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -27990,7 +27990,7 @@
       <c r="H19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -28006,7 +28006,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -28020,7 +28020,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -28034,7 +28034,7 @@
         <v>-10.8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -28048,7 +28048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -28076,7 +28076,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -28091,7 +28091,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -28120,7 +28120,7 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -28134,7 +28134,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -28148,7 +28148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -28162,7 +28162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -28189,9 +28189,9 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -28199,7 +28199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -28213,7 +28213,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -28227,7 +28227,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>242</v>
       </c>
@@ -28241,7 +28241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>243</v>
       </c>
@@ -28255,7 +28255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>241</v>
       </c>
@@ -28269,7 +28269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -28283,7 +28283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -28297,7 +28297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -28311,7 +28311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -28325,7 +28325,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -28353,7 +28353,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -28367,7 +28367,7 @@
         <v>25100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -28381,7 +28381,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -28409,7 +28409,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -28423,7 +28423,7 @@
         <v>-10.8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -28437,7 +28437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -28465,7 +28465,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -28479,7 +28479,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -28493,7 +28493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -28507,7 +28507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -28521,7 +28521,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -28535,7 +28535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -28549,7 +28549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -28576,9 +28576,9 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -28586,7 +28586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -28597,7 +28597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -28608,7 +28608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>244</v>
       </c>
@@ -28619,7 +28619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -28630,7 +28630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -28641,7 +28641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -28663,7 +28663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -28674,7 +28674,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>208</v>
       </c>

--- a/Solutions/solution_models_H18.xlsx
+++ b/Solutions/solution_models_H18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Thermolab\v_2023_02_06\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Thermolab\v_23_10_09\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E1C811-FBB9-43AF-869E-C85CCDD2C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402EA739-CD73-4A3B-AB47-C8468FBDD52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="865" firstSheet="11" activeTab="16" xr2:uid="{5AA2B440-0145-4F56-AB97-83AB8C8EBBCD}"/>
+    <workbookView xWindow="12940" yWindow="2450" windowWidth="20530" windowHeight="17500" tabRatio="865" firstSheet="17" activeTab="27" xr2:uid="{5AA2B440-0145-4F56-AB97-83AB8C8EBBCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Melt" sheetId="3" r:id="rId1"/>
@@ -1587,12 +1587,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1622,10 +1622,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>210</v>
       </c>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>-18400</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1750,9 +1750,9 @@
       <selection activeCell="B21" sqref="B21:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>248</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>247</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>249</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1999,9 +1999,9 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>246</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>247</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>248</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>249</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2332,12 +2332,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>250</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>252</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -2631,10 +2631,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D22" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
     </row>
   </sheetData>
@@ -2650,12 +2650,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>253</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>255</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -2740,12 +2740,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>253</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>254</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>255</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -3008,9 +3008,9 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>253</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>362</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>255</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -3275,9 +3275,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>253</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>362</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>254</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>255</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -3437,13 +3437,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C242AA7-14DE-4A41-B16E-9624765AFF4E}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>214</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>215</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>220</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>205</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>206</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>207</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>-11000</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>-11000</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -4900,12 +4900,12 @@
       <selection activeCell="B17" sqref="B17:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>256</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>257</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>260</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>261</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>207</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>208</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>69</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>69</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -5886,12 +5886,12 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="14" width="8.5703125" customWidth="1"/>
+    <col min="2" max="14" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>262</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>263</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>264</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>265</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>266</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>267</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>268</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>269</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>270</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>271</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -6442,7 +6442,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>209</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>205</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>206</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>207</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>208</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -6922,7 +6922,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -6959,7 +6959,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -6999,7 +6999,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -7039,7 +7039,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -7079,14 +7079,14 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -7126,7 +7126,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -7166,7 +7166,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -7206,7 +7206,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -7246,7 +7246,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -7284,7 +7284,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -7322,7 +7322,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -7507,7 +7507,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>85</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -8050,7 +8050,7 @@
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -8068,7 +8068,7 @@
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -8086,7 +8086,7 @@
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -8104,7 +8104,7 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -8122,7 +8122,7 @@
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -8140,7 +8140,7 @@
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -8158,7 +8158,7 @@
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -8176,7 +8176,7 @@
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -8194,7 +8194,7 @@
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -8212,7 +8212,7 @@
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -8230,7 +8230,7 @@
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -8248,7 +8248,7 @@
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -8266,7 +8266,7 @@
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -8297,12 +8297,12 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>221</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>222</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>223</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>225</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>227</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>228</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>229</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>231</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>232</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>209</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>206</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>208</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>17800</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>23700</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>40300</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>-8300</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>17300</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>-610</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>-940</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>-860</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>-1580</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>-1580</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -11225,15 +11225,15 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>272</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>273</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>274</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>275</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>276</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>277</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>278</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>279</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>205</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>207</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>208</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>21500</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>35100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>62200</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>24300</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -12050,9 +12050,9 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>281</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>282</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>283</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>284</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>285</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>286</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>287</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>288</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>289</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>255</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>206</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>207</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>208</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>112</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>57600</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>72200</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>71700</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -13038,7 +13038,7 @@
         <v>71700</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>117</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>120</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>-820</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>-670</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>-1100</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>-1100</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>-790</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>-670</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>-1190</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -14191,12 +14191,12 @@
       <selection activeCell="B24" sqref="B24:O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>281</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>282</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>283</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>284</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>285</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>286</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>287</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>288</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>289</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>362</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>254</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>255</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>209</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>205</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>206</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>207</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -15158,7 +15158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -15290,7 +15290,7 @@
         <v>57600</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>72200</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>71700</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>71700</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -15598,7 +15598,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>363</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -15994,7 +15994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -16082,7 +16082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -16126,7 +16126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -16170,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>119</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>120</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>363</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -16390,7 +16390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -16434,7 +16434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>-820</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -16522,7 +16522,7 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>113</v>
       </c>
@@ -16566,7 +16566,7 @@
         <v>-670</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -16610,7 +16610,7 @@
         <v>-1100</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -16654,7 +16654,7 @@
         <v>-1100</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>116</v>
       </c>
@@ -16698,7 +16698,7 @@
         <v>-790</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -16742,7 +16742,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>-670</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -16874,7 +16874,7 @@
         <v>-1190</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>363</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -16962,7 +16962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -17019,9 +17019,9 @@
       <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>290</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>291</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>292</v>
       </c>
@@ -17324,7 +17324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>293</v>
       </c>
@@ -17383,7 +17383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>294</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>295</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>296</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>297</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>298</v>
       </c>
@@ -17678,7 +17678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>299</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>300</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -17855,7 +17855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>206</v>
       </c>
@@ -17973,7 +17973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>207</v>
       </c>
@@ -18050,7 +18050,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>208</v>
       </c>
@@ -18109,7 +18109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>133</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>129</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -18489,7 +18489,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -18527,7 +18527,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -18565,7 +18565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -18603,7 +18603,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>126</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -18679,7 +18679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -18755,7 +18755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -18869,7 +18869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>129</v>
       </c>
@@ -18907,7 +18907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -19059,7 +19059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>126</v>
       </c>
@@ -19097,7 +19097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>134</v>
       </c>
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>135</v>
       </c>
@@ -19211,7 +19211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -19249,7 +19249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>136</v>
       </c>
@@ -19287,7 +19287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -19325,7 +19325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -19363,7 +19363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>130</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -19439,7 +19439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>132</v>
       </c>
@@ -19477,7 +19477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -19515,7 +19515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -19642,9 +19642,9 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -19652,7 +19652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>301</v>
       </c>
@@ -19766,7 +19766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>302</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>303</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>304</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>305</v>
       </c>
@@ -19918,7 +19918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>306</v>
       </c>
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -19994,7 +19994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -20070,7 +20070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>207</v>
       </c>
@@ -20119,7 +20119,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>208</v>
       </c>
@@ -20157,7 +20157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -20180,7 +20180,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -20203,7 +20203,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>144</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -20249,7 +20249,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>139</v>
       </c>
@@ -20272,7 +20272,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>140</v>
       </c>
@@ -20295,7 +20295,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>141</v>
       </c>
@@ -20331,9 +20331,9 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -20341,7 +20341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -20411,7 +20411,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>307</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>308</v>
       </c>
@@ -20481,7 +20481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>309</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>310</v>
       </c>
@@ -20551,7 +20551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>311</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>312</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -20726,7 +20726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>207</v>
       </c>
@@ -20761,7 +20761,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>208</v>
       </c>
@@ -20796,7 +20796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>147</v>
       </c>
@@ -20888,7 +20888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>148</v>
       </c>
@@ -20911,7 +20911,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -20934,7 +20934,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -20957,7 +20957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -20980,7 +20980,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -21027,7 +21027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -21074,7 +21074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -21097,7 +21097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -21120,7 +21120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -21189,7 +21189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -21212,7 +21212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>148</v>
       </c>
@@ -21235,7 +21235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -21258,7 +21258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -21327,7 +21327,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -21386,9 +21386,9 @@
       <selection activeCell="A12" sqref="A12:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -21396,7 +21396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -21413,7 +21413,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -21430,7 +21430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>313</v>
       </c>
@@ -21447,7 +21447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>314</v>
       </c>
@@ -21464,7 +21464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>315</v>
       </c>
@@ -21481,7 +21481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -21498,7 +21498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -21515,7 +21515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -21533,7 +21533,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -21551,7 +21551,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -21569,11 +21569,11 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -21589,7 +21589,7 @@
       <c r="E17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -21605,7 +21605,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -21619,7 +21619,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>155</v>
       </c>
@@ -21633,20 +21633,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -21664,9 +21664,9 @@
       <selection activeCell="A12" sqref="A12:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -21674,7 +21674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -21691,7 +21691,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -21708,7 +21708,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>316</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>317</v>
       </c>
@@ -21742,7 +21742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>318</v>
       </c>
@@ -21759,7 +21759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -21776,7 +21776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -21793,7 +21793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -21810,7 +21810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -21827,7 +21827,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -21844,7 +21844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -21859,7 +21859,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>157</v>
       </c>
@@ -21874,7 +21874,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>158</v>
       </c>
@@ -21888,7 +21888,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>159</v>
       </c>
@@ -21903,10 +21903,10 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -21920,7 +21920,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>157</v>
       </c>
@@ -21934,7 +21934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>158</v>
       </c>
@@ -21948,7 +21948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -21962,7 +21962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -21976,7 +21976,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>157</v>
       </c>
@@ -21990,7 +21990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -22004,7 +22004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -22032,7 +22032,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -22046,7 +22046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -22060,7 +22060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -22083,13 +22083,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC82E37-876E-48F2-84B8-30B246AEC902}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -22097,7 +22097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -22141,7 +22141,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -22185,7 +22185,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>319</v>
       </c>
@@ -22229,7 +22229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>320</v>
       </c>
@@ -22273,7 +22273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>321</v>
       </c>
@@ -22317,7 +22317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>322</v>
       </c>
@@ -22361,7 +22361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>323</v>
       </c>
@@ -22405,7 +22405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>324</v>
       </c>
@@ -22449,7 +22449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>325</v>
       </c>
@@ -22493,7 +22493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>326</v>
       </c>
@@ -22537,7 +22537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -22581,7 +22581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>205</v>
       </c>
@@ -22625,7 +22625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -22669,7 +22669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>207</v>
       </c>
@@ -22726,7 +22726,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>208</v>
       </c>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -22799,7 +22799,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -22828,7 +22828,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>162</v>
       </c>
@@ -22886,7 +22886,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>163</v>
       </c>
@@ -22915,7 +22915,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>164</v>
       </c>
@@ -22944,7 +22944,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>165</v>
       </c>
@@ -22973,7 +22973,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>166</v>
       </c>
@@ -23002,7 +23002,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>169</v>
       </c>
@@ -23044,9 +23044,9 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -23054,7 +23054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -23080,7 +23080,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -23106,7 +23106,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>327</v>
       </c>
@@ -23132,7 +23132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>328</v>
       </c>
@@ -23158,7 +23158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>329</v>
       </c>
@@ -23184,7 +23184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>330</v>
       </c>
@@ -23210,7 +23210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>331</v>
       </c>
@@ -23238,7 +23238,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -23264,7 +23264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>205</v>
       </c>
@@ -23290,7 +23290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -23316,7 +23316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>207</v>
       </c>
@@ -23342,7 +23342,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>208</v>
       </c>
@@ -23368,7 +23368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -23388,7 +23388,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -23428,7 +23428,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>174</v>
       </c>
@@ -23448,7 +23448,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -23468,7 +23468,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>173</v>
       </c>
@@ -23501,12 +23501,12 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -23514,7 +23514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -23540,7 +23540,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -23566,7 +23566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>359</v>
       </c>
@@ -23592,7 +23592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>360</v>
       </c>
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>367</v>
       </c>
@@ -23644,7 +23644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>368</v>
       </c>
@@ -23696,7 +23696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>369</v>
       </c>
@@ -23722,7 +23722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>255</v>
       </c>
@@ -23751,7 +23751,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -23780,12 +23780,12 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -23811,7 +23811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>206</v>
       </c>
@@ -23837,7 +23837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -23870,7 +23870,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>208</v>
       </c>
@@ -23896,11 +23896,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
@@ -23917,9 +23917,9 @@
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -23927,7 +23927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -23947,7 +23947,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -23967,7 +23967,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>332</v>
       </c>
@@ -23988,7 +23988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>333</v>
       </c>
@@ -24009,7 +24009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>334</v>
       </c>
@@ -24030,7 +24030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>335</v>
       </c>
@@ -24051,7 +24051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -24073,7 +24073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -24113,7 +24113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -24133,7 +24133,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -24153,7 +24153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -24170,7 +24170,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>176</v>
       </c>
@@ -24187,7 +24187,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -24204,7 +24204,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>178</v>
       </c>
@@ -24251,9 +24251,9 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -24261,7 +24261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -24283,7 +24283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>336</v>
       </c>
@@ -24294,7 +24294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -24305,7 +24305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -24316,7 +24316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -24327,7 +24327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -24338,7 +24338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -24349,7 +24349,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -24360,7 +24360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -24371,7 +24371,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -24382,7 +24382,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>200</v>
       </c>
@@ -24406,9 +24406,9 @@
       <selection activeCell="A11" sqref="A11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -24416,7 +24416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -24438,7 +24438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>338</v>
       </c>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>339</v>
       </c>
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -24471,7 +24471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -24482,7 +24482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -24493,7 +24493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -24504,7 +24504,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -24515,7 +24515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -24526,7 +24526,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -24537,7 +24537,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>202</v>
       </c>
@@ -24561,9 +24561,9 @@
       <selection activeCell="A12" sqref="A12:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -24571,7 +24571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -24591,7 +24591,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -24611,7 +24611,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>340</v>
       </c>
@@ -24631,7 +24631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>341</v>
       </c>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>342</v>
       </c>
@@ -24671,7 +24671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -24691,7 +24691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -24711,7 +24711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -24731,7 +24731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -24751,7 +24751,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -24771,7 +24771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -24785,7 +24785,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -24799,7 +24799,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -24813,7 +24813,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>182</v>
       </c>
@@ -24840,9 +24840,9 @@
       <selection activeCell="A12" sqref="A12:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -24850,7 +24850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -24870,7 +24870,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -24890,7 +24890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>343</v>
       </c>
@@ -24910,7 +24910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>344</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>345</v>
       </c>
@@ -24950,7 +24950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -24970,7 +24970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -24990,7 +24990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -25010,7 +25010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -25030,7 +25030,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -25050,7 +25050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -25064,7 +25064,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>185</v>
       </c>
@@ -25078,7 +25078,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>186</v>
       </c>
@@ -25092,7 +25092,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -25119,9 +25119,9 @@
       <selection activeCell="A12" sqref="A12:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -25129,7 +25129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -25149,7 +25149,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -25169,7 +25169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>346</v>
       </c>
@@ -25189,7 +25189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>347</v>
       </c>
@@ -25209,7 +25209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>348</v>
       </c>
@@ -25229,7 +25229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -25249,7 +25249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -25269,7 +25269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -25289,7 +25289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -25309,7 +25309,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -25343,7 +25343,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -25357,7 +25357,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -25371,7 +25371,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>190</v>
       </c>
@@ -25398,9 +25398,9 @@
       <selection activeCell="A11" sqref="A11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -25408,7 +25408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -25419,7 +25419,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -25430,7 +25430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>349</v>
       </c>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>350</v>
       </c>
@@ -25452,7 +25452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -25464,10 +25464,10 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -25479,7 +25479,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -25490,7 +25490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -25501,7 +25501,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -25512,7 +25512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -25523,7 +25523,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -25534,7 +25534,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>192</v>
       </c>
@@ -25558,9 +25558,9 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -25568,7 +25568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -25579,7 +25579,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -25590,7 +25590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -25601,7 +25601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>352</v>
       </c>
@@ -25612,7 +25612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -25623,7 +25623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -25647,7 +25647,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -25658,7 +25658,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -25669,7 +25669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -25680,7 +25680,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -25691,7 +25691,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>194</v>
       </c>
@@ -25715,9 +25715,9 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -25725,7 +25725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -25748,7 +25748,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -25771,7 +25771,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>256</v>
       </c>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>257</v>
       </c>
@@ -25817,7 +25817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -25840,7 +25840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -25863,7 +25863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -25886,7 +25886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -25932,7 +25932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -25955,7 +25955,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -25978,7 +25978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -25995,7 +25995,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -26012,7 +26012,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -26029,7 +26029,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>195</v>
       </c>
@@ -26046,7 +26046,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>196</v>
       </c>
@@ -26077,9 +26077,9 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -26087,7 +26087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -26098,7 +26098,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26109,7 +26109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>355</v>
       </c>
@@ -26120,7 +26120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>356</v>
       </c>
@@ -26131,10 +26131,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -26146,7 +26146,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -26157,7 +26157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -26168,7 +26168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -26179,7 +26179,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -26190,7 +26190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -26201,7 +26201,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>197</v>
       </c>
@@ -26212,7 +26212,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>198</v>
       </c>
@@ -26236,12 +26236,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -26249,7 +26249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -26266,7 +26266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26283,7 +26283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>359</v>
       </c>
@@ -26300,7 +26300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>360</v>
       </c>
@@ -26317,7 +26317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>365</v>
       </c>
@@ -26334,7 +26334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>255</v>
       </c>
@@ -26354,7 +26354,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -26374,12 +26374,12 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -26413,7 +26413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -26434,7 +26434,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -26451,11 +26451,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
@@ -26472,9 +26472,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -26482,7 +26482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -26490,7 +26490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26498,7 +26498,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>374</v>
       </c>
@@ -26506,7 +26506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -26514,7 +26514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -26522,7 +26522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -26530,7 +26530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -26538,7 +26538,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -26546,22 +26546,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D21" s="2"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
     </row>
   </sheetData>
@@ -26577,9 +26577,9 @@
       <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -26587,7 +26587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -26595,7 +26595,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26603,7 +26603,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>375</v>
       </c>
@@ -26611,7 +26611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -26619,7 +26619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -26627,7 +26627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -26635,7 +26635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -26643,7 +26643,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -26664,9 +26664,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -26674,7 +26674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -26682,7 +26682,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26690,7 +26690,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>379</v>
       </c>
@@ -26698,7 +26698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -26706,7 +26706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -26714,7 +26714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -26722,7 +26722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -26730,7 +26730,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -26751,9 +26751,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -26761,7 +26761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -26769,7 +26769,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26777,7 +26777,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>378</v>
       </c>
@@ -26785,7 +26785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -26793,7 +26793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -26801,7 +26801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -26809,7 +26809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -26817,7 +26817,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -26838,9 +26838,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -26848,7 +26848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -26856,7 +26856,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26864,7 +26864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>377</v>
       </c>
@@ -26872,7 +26872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -26880,7 +26880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -26888,7 +26888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -26896,7 +26896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -26904,7 +26904,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -26925,9 +26925,9 @@
       <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -26935,7 +26935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -26943,7 +26943,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26951,7 +26951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>376</v>
       </c>
@@ -26959,7 +26959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -26967,7 +26967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -26991,7 +26991,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -27012,9 +27012,9 @@
       <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -27022,7 +27022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -27030,7 +27030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -27038,7 +27038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>380</v>
       </c>
@@ -27046,7 +27046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -27054,7 +27054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -27062,7 +27062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -27070,7 +27070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -27078,7 +27078,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -27099,9 +27099,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -27109,7 +27109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -27117,7 +27117,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -27125,7 +27125,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>381</v>
       </c>
@@ -27133,7 +27133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -27141,7 +27141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -27149,7 +27149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -27157,7 +27157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -27165,7 +27165,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -27186,12 +27186,12 @@
       <selection activeCell="A12" sqref="A12:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -27199,7 +27199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -27225,7 +27225,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>233</v>
       </c>
@@ -27278,7 +27278,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -27305,7 +27305,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>235</v>
       </c>
@@ -27332,7 +27332,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -27342,7 +27342,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -27368,10 +27368,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -27423,7 +27423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -27449,7 +27449,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -27488,9 +27488,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -27498,7 +27498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -27524,7 +27524,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -27550,10 +27550,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>236</v>
       </c>
@@ -27581,7 +27581,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>237</v>
       </c>
@@ -27608,7 +27608,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>238</v>
       </c>
@@ -27636,7 +27636,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -27648,7 +27648,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -27674,10 +27674,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -27729,7 +27729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -27755,7 +27755,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -27794,9 +27794,9 @@
       <selection activeCell="A12" sqref="A12:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -27804,7 +27804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -27818,7 +27818,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -27832,7 +27832,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>239</v>
       </c>
@@ -27846,7 +27846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>240</v>
       </c>
@@ -27860,7 +27860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>241</v>
       </c>
@@ -27874,7 +27874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -27888,7 +27888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -27902,7 +27902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -27916,7 +27916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -27930,7 +27930,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -27944,7 +27944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -27958,7 +27958,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -27974,7 +27974,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -27990,7 +27990,7 @@
       <c r="H19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -28006,7 +28006,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -28020,7 +28020,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -28034,7 +28034,7 @@
         <v>-10.8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -28048,7 +28048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -28076,7 +28076,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -28091,7 +28091,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -28120,7 +28120,7 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -28134,7 +28134,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -28148,7 +28148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -28162,7 +28162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -28189,9 +28189,9 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -28199,7 +28199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -28213,7 +28213,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -28227,7 +28227,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>242</v>
       </c>
@@ -28241,7 +28241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>243</v>
       </c>
@@ -28255,7 +28255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>241</v>
       </c>
@@ -28269,7 +28269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -28283,7 +28283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -28297,7 +28297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -28311,7 +28311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -28325,7 +28325,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -28353,7 +28353,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -28367,7 +28367,7 @@
         <v>25100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -28381,7 +28381,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -28409,7 +28409,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -28423,7 +28423,7 @@
         <v>-10.8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -28437,7 +28437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -28465,7 +28465,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -28479,7 +28479,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -28493,7 +28493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -28507,7 +28507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -28521,7 +28521,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -28535,7 +28535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -28549,7 +28549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -28576,9 +28576,9 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -28586,7 +28586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -28597,7 +28597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -28608,7 +28608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>244</v>
       </c>
@@ -28619,7 +28619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -28630,7 +28630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -28641,7 +28641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -28663,7 +28663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -28674,7 +28674,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>208</v>
       </c>
